--- a/機場資料/Airport_Code.xlsx
+++ b/機場資料/Airport_Code.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2013_航點" sheetId="1" r:id="rId1"/>
@@ -657,10 +657,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>南韓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>務安國際機場</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1286,6 +1282,10 @@
   </si>
   <si>
     <t>蘇南碩放國際機場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓國</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1642,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1664,30 +1664,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
       </c>
       <c r="C2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" t="s">
         <v>230</v>
-      </c>
-      <c r="D2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" t="s">
         <v>232</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>233</v>
-      </c>
-      <c r="D3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -1776,16 +1776,16 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" t="s">
         <v>235</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>236</v>
-      </c>
-      <c r="D10" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1930,16 +1930,16 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
       </c>
       <c r="C21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" t="s">
         <v>238</v>
-      </c>
-      <c r="D21" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -2042,16 +2042,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B29" t="s">
         <v>115</v>
       </c>
       <c r="C29" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" t="s">
         <v>240</v>
-      </c>
-      <c r="D29" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
@@ -2227,27 +2227,27 @@
         <v>65</v>
       </c>
       <c r="B42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" t="s">
         <v>157</v>
-      </c>
-      <c r="C42" t="s">
-        <v>159</v>
-      </c>
-      <c r="D42" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B43" t="s">
         <v>71</v>
       </c>
       <c r="C43" t="s">
+        <v>241</v>
+      </c>
+      <c r="D43" t="s">
         <v>242</v>
-      </c>
-      <c r="D43" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
@@ -2258,10 +2258,10 @@
         <v>71</v>
       </c>
       <c r="C44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" t="s">
         <v>160</v>
-      </c>
-      <c r="D44" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
@@ -2272,10 +2272,10 @@
         <v>71</v>
       </c>
       <c r="C45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" t="s">
         <v>162</v>
-      </c>
-      <c r="D45" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
@@ -2286,10 +2286,10 @@
         <v>71</v>
       </c>
       <c r="C46" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" t="s">
         <v>164</v>
-      </c>
-      <c r="D46" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
@@ -2300,10 +2300,10 @@
         <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
@@ -2314,10 +2314,10 @@
         <v>71</v>
       </c>
       <c r="C48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" t="s">
         <v>167</v>
-      </c>
-      <c r="D48" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
@@ -2328,10 +2328,10 @@
         <v>71</v>
       </c>
       <c r="C49" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" t="s">
         <v>169</v>
-      </c>
-      <c r="D49" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
@@ -2342,10 +2342,10 @@
         <v>71</v>
       </c>
       <c r="C50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" t="s">
         <v>171</v>
-      </c>
-      <c r="D50" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
@@ -2356,10 +2356,10 @@
         <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
@@ -2367,13 +2367,13 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" t="s">
         <v>176</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>177</v>
-      </c>
-      <c r="D52" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -2384,10 +2384,10 @@
         <v>91</v>
       </c>
       <c r="C53" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" t="s">
         <v>179</v>
-      </c>
-      <c r="D53" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
@@ -2398,10 +2398,10 @@
         <v>77</v>
       </c>
       <c r="C54" t="s">
+        <v>180</v>
+      </c>
+      <c r="D54" t="s">
         <v>181</v>
-      </c>
-      <c r="D54" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
@@ -2409,13 +2409,13 @@
         <v>19</v>
       </c>
       <c r="B55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" t="s">
         <v>183</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>184</v>
-      </c>
-      <c r="D55" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
@@ -2423,27 +2423,27 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" t="s">
         <v>186</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>187</v>
-      </c>
-      <c r="D56" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B57" t="s">
         <v>115</v>
       </c>
       <c r="C57" t="s">
+        <v>243</v>
+      </c>
+      <c r="D57" t="s">
         <v>244</v>
-      </c>
-      <c r="D57" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
@@ -2454,24 +2454,24 @@
         <v>120</v>
       </c>
       <c r="C58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" t="s">
         <v>189</v>
-      </c>
-      <c r="D58" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B59" t="s">
         <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
@@ -2482,10 +2482,10 @@
         <v>77</v>
       </c>
       <c r="C60" t="s">
+        <v>190</v>
+      </c>
+      <c r="D60" t="s">
         <v>191</v>
-      </c>
-      <c r="D60" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
@@ -2493,13 +2493,13 @@
         <v>44</v>
       </c>
       <c r="B61" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" t="s">
         <v>193</v>
-      </c>
-      <c r="C61" t="s">
-        <v>193</v>
-      </c>
-      <c r="D61" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
@@ -2510,10 +2510,10 @@
         <v>71</v>
       </c>
       <c r="C62" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" t="s">
         <v>195</v>
-      </c>
-      <c r="D62" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
@@ -2524,10 +2524,10 @@
         <v>106</v>
       </c>
       <c r="C63" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" t="s">
         <v>197</v>
-      </c>
-      <c r="D63" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
@@ -2538,10 +2538,10 @@
         <v>77</v>
       </c>
       <c r="C64" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" t="s">
         <v>199</v>
-      </c>
-      <c r="D64" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
@@ -2552,24 +2552,24 @@
         <v>77</v>
       </c>
       <c r="C65" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65" t="s">
         <v>201</v>
-      </c>
-      <c r="D65" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B66" t="s">
         <v>91</v>
       </c>
       <c r="C66" t="s">
+        <v>246</v>
+      </c>
+      <c r="D66" t="s">
         <v>247</v>
-      </c>
-      <c r="D66" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
@@ -2580,10 +2580,10 @@
         <v>71</v>
       </c>
       <c r="C67" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67" t="s">
         <v>203</v>
-      </c>
-      <c r="D67" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
@@ -2594,10 +2594,10 @@
         <v>77</v>
       </c>
       <c r="C68" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" t="s">
         <v>205</v>
-      </c>
-      <c r="D68" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
@@ -2611,7 +2611,7 @@
         <v>146</v>
       </c>
       <c r="D69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -2622,10 +2622,10 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" t="s">
         <v>208</v>
-      </c>
-      <c r="D70" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
@@ -2636,38 +2636,38 @@
         <v>137</v>
       </c>
       <c r="C71" t="s">
+        <v>209</v>
+      </c>
+      <c r="D71" t="s">
         <v>210</v>
-      </c>
-      <c r="D71" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B72" t="s">
         <v>71</v>
       </c>
       <c r="C72" t="s">
+        <v>248</v>
+      </c>
+      <c r="D72" t="s">
         <v>249</v>
-      </c>
-      <c r="D72" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B73" t="s">
         <v>71</v>
       </c>
       <c r="C73" t="s">
+        <v>250</v>
+      </c>
+      <c r="D73" t="s">
         <v>251</v>
-      </c>
-      <c r="D73" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
@@ -2678,24 +2678,24 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
+        <v>211</v>
+      </c>
+      <c r="D74" t="s">
         <v>212</v>
-      </c>
-      <c r="D74" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
       </c>
       <c r="C75" t="s">
+        <v>252</v>
+      </c>
+      <c r="D75" t="s">
         <v>253</v>
-      </c>
-      <c r="D75" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
@@ -2706,10 +2706,10 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
+        <v>213</v>
+      </c>
+      <c r="D76" t="s">
         <v>214</v>
-      </c>
-      <c r="D76" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
@@ -2720,10 +2720,10 @@
         <v>71</v>
       </c>
       <c r="C77" t="s">
+        <v>215</v>
+      </c>
+      <c r="D77" t="s">
         <v>216</v>
-      </c>
-      <c r="D77" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2741,8 +2741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B90" sqref="B90:D90"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2763,30 +2763,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
       </c>
       <c r="C2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" t="s">
         <v>230</v>
-      </c>
-      <c r="D2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" t="s">
         <v>232</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>233</v>
-      </c>
-      <c r="D3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -2861,21 +2861,21 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" t="s">
         <v>235</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>236</v>
-      </c>
-      <c r="D9" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B11" t="s">
         <v>106</v>
@@ -2917,16 +2917,16 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -3015,21 +3015,21 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
       </c>
       <c r="C20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" t="s">
         <v>238</v>
-      </c>
-      <c r="D20" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s">
         <v>91</v>
@@ -3038,7 +3038,7 @@
         <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -3085,16 +3085,16 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
       </c>
       <c r="C25" t="s">
+        <v>280</v>
+      </c>
+      <c r="D25" t="s">
         <v>281</v>
-      </c>
-      <c r="D25" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -3155,30 +3155,30 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s">
         <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B31" t="s">
         <v>115</v>
       </c>
       <c r="C31" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" t="s">
         <v>240</v>
-      </c>
-      <c r="D31" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -3197,30 +3197,30 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s">
         <v>71</v>
       </c>
       <c r="C33" t="s">
+        <v>283</v>
+      </c>
+      <c r="D33" t="s">
         <v>284</v>
-      </c>
-      <c r="D33" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
       </c>
       <c r="C34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D34" t="s">
         <v>286</v>
-      </c>
-      <c r="D34" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -3281,30 +3281,30 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B39" t="s">
         <v>71</v>
       </c>
       <c r="C39" t="s">
+        <v>287</v>
+      </c>
+      <c r="D39" t="s">
         <v>288</v>
-      </c>
-      <c r="D39" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B40" t="s">
         <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D40" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
@@ -3410,27 +3410,27 @@
         <v>65</v>
       </c>
       <c r="B48" t="s">
+        <v>314</v>
+      </c>
+      <c r="C48" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" t="s">
         <v>157</v>
-      </c>
-      <c r="C48" t="s">
-        <v>159</v>
-      </c>
-      <c r="D48" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
       </c>
       <c r="C49" t="s">
+        <v>241</v>
+      </c>
+      <c r="D49" t="s">
         <v>242</v>
-      </c>
-      <c r="D49" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
@@ -3441,24 +3441,24 @@
         <v>71</v>
       </c>
       <c r="C50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" t="s">
         <v>160</v>
-      </c>
-      <c r="D50" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B51" t="s">
         <v>71</v>
       </c>
       <c r="C51" t="s">
+        <v>290</v>
+      </c>
+      <c r="D51" t="s">
         <v>291</v>
-      </c>
-      <c r="D51" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
@@ -3469,10 +3469,10 @@
         <v>71</v>
       </c>
       <c r="C52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" t="s">
         <v>162</v>
-      </c>
-      <c r="D52" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -3483,24 +3483,24 @@
         <v>71</v>
       </c>
       <c r="C53" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" t="s">
         <v>164</v>
-      </c>
-      <c r="D53" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B54" t="s">
         <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
@@ -3511,24 +3511,24 @@
         <v>71</v>
       </c>
       <c r="C55" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" t="s">
         <v>167</v>
-      </c>
-      <c r="D55" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B56" t="s">
         <v>71</v>
       </c>
       <c r="C56" t="s">
+        <v>292</v>
+      </c>
+      <c r="D56" t="s">
         <v>293</v>
-      </c>
-      <c r="D56" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
@@ -3539,10 +3539,10 @@
         <v>71</v>
       </c>
       <c r="C57" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" t="s">
         <v>169</v>
-      </c>
-      <c r="D57" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
@@ -3553,15 +3553,15 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" t="s">
         <v>171</v>
-      </c>
-      <c r="D58" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B59" t="s">
         <v>77</v>
@@ -3581,10 +3581,10 @@
         <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
@@ -3592,13 +3592,13 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" t="s">
         <v>176</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>177</v>
-      </c>
-      <c r="D61" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
@@ -3609,10 +3609,10 @@
         <v>91</v>
       </c>
       <c r="C62" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" t="s">
         <v>179</v>
-      </c>
-      <c r="D62" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
@@ -3623,10 +3623,10 @@
         <v>77</v>
       </c>
       <c r="C63" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" t="s">
         <v>181</v>
-      </c>
-      <c r="D63" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
@@ -3634,13 +3634,13 @@
         <v>19</v>
       </c>
       <c r="B64" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" t="s">
         <v>183</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>184</v>
-      </c>
-      <c r="D64" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
@@ -3648,13 +3648,13 @@
         <v>53</v>
       </c>
       <c r="B65" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" t="s">
         <v>186</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>187</v>
-      </c>
-      <c r="D65" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
@@ -3665,10 +3665,10 @@
         <v>120</v>
       </c>
       <c r="C66" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" t="s">
         <v>189</v>
-      </c>
-      <c r="D66" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
@@ -3679,13 +3679,13 @@
         <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D67" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E67" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
@@ -3693,13 +3693,13 @@
         <v>44</v>
       </c>
       <c r="B68" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" t="s">
         <v>193</v>
-      </c>
-      <c r="C68" t="s">
-        <v>193</v>
-      </c>
-      <c r="D68" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
@@ -3710,10 +3710,10 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69" t="s">
         <v>195</v>
-      </c>
-      <c r="D69" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
@@ -3724,24 +3724,24 @@
         <v>106</v>
       </c>
       <c r="C70" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" t="s">
         <v>197</v>
-      </c>
-      <c r="D70" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B71" t="s">
         <v>71</v>
       </c>
       <c r="C71" t="s">
+        <v>294</v>
+      </c>
+      <c r="D71" t="s">
         <v>295</v>
-      </c>
-      <c r="D71" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
@@ -3752,10 +3752,10 @@
         <v>77</v>
       </c>
       <c r="C72" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" t="s">
         <v>199</v>
-      </c>
-      <c r="D72" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
@@ -3766,24 +3766,24 @@
         <v>77</v>
       </c>
       <c r="C73" t="s">
+        <v>200</v>
+      </c>
+      <c r="D73" t="s">
         <v>201</v>
-      </c>
-      <c r="D73" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B74" t="s">
         <v>91</v>
       </c>
       <c r="C74" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" t="s">
         <v>247</v>
-      </c>
-      <c r="D74" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
@@ -3794,10 +3794,10 @@
         <v>71</v>
       </c>
       <c r="C75" t="s">
+        <v>202</v>
+      </c>
+      <c r="D75" t="s">
         <v>203</v>
-      </c>
-      <c r="D75" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
@@ -3808,10 +3808,10 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
+        <v>204</v>
+      </c>
+      <c r="D76" t="s">
         <v>205</v>
-      </c>
-      <c r="D76" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
@@ -3825,21 +3825,21 @@
         <v>146</v>
       </c>
       <c r="D77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B78" t="s">
         <v>137</v>
       </c>
       <c r="C78" t="s">
+        <v>296</v>
+      </c>
+      <c r="D78" t="s">
         <v>297</v>
-      </c>
-      <c r="D78" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
@@ -3850,10 +3850,10 @@
         <v>71</v>
       </c>
       <c r="C79" t="s">
+        <v>207</v>
+      </c>
+      <c r="D79" t="s">
         <v>208</v>
-      </c>
-      <c r="D79" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
@@ -3864,38 +3864,38 @@
         <v>137</v>
       </c>
       <c r="C80" t="s">
+        <v>209</v>
+      </c>
+      <c r="D80" t="s">
         <v>210</v>
-      </c>
-      <c r="D80" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B81" t="s">
         <v>137</v>
       </c>
       <c r="C81" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B82" t="s">
         <v>71</v>
       </c>
       <c r="C82" t="s">
+        <v>250</v>
+      </c>
+      <c r="D82" t="s">
         <v>251</v>
-      </c>
-      <c r="D82" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
@@ -3906,38 +3906,38 @@
         <v>77</v>
       </c>
       <c r="C83" t="s">
+        <v>211</v>
+      </c>
+      <c r="D83" t="s">
         <v>212</v>
-      </c>
-      <c r="D83" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B84" t="s">
+        <v>275</v>
+      </c>
+      <c r="C84" t="s">
         <v>276</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>277</v>
-      </c>
-      <c r="D84" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B85" t="s">
         <v>77</v>
       </c>
       <c r="C85" t="s">
+        <v>252</v>
+      </c>
+      <c r="D85" t="s">
         <v>253</v>
-      </c>
-      <c r="D85" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
@@ -3948,38 +3948,38 @@
         <v>77</v>
       </c>
       <c r="C86" t="s">
+        <v>213</v>
+      </c>
+      <c r="D86" t="s">
         <v>214</v>
-      </c>
-      <c r="D86" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B87" t="s">
         <v>77</v>
       </c>
       <c r="C87" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D87" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B88" t="s">
         <v>77</v>
       </c>
       <c r="C88" t="s">
+        <v>299</v>
+      </c>
+      <c r="D88" t="s">
         <v>300</v>
-      </c>
-      <c r="D88" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
@@ -3990,24 +3990,24 @@
         <v>71</v>
       </c>
       <c r="C89" t="s">
+        <v>215</v>
+      </c>
+      <c r="D89" t="s">
         <v>216</v>
-      </c>
-      <c r="D89" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B90" t="s">
         <v>77</v>
       </c>
       <c r="C90" t="s">
+        <v>302</v>
+      </c>
+      <c r="D90" t="s">
         <v>303</v>
-      </c>
-      <c r="D90" t="s">
-        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -4025,8 +4025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -4047,16 +4047,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" t="s">
         <v>232</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>233</v>
-      </c>
-      <c r="D2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -4103,7 +4103,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B8" t="s">
         <v>106</v>
@@ -4159,16 +4159,16 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -4215,16 +4215,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" t="s">
         <v>308</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>309</v>
-      </c>
-      <c r="D14" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -4257,16 +4257,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
       </c>
       <c r="C17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" t="s">
         <v>238</v>
-      </c>
-      <c r="D17" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -4313,16 +4313,16 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
       </c>
       <c r="C21" t="s">
+        <v>280</v>
+      </c>
+      <c r="D21" t="s">
         <v>281</v>
-      </c>
-      <c r="D21" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -4383,30 +4383,30 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B26" t="s">
         <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" t="s">
         <v>115</v>
       </c>
       <c r="C27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" t="s">
         <v>240</v>
-      </c>
-      <c r="D27" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
@@ -4425,30 +4425,30 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s">
         <v>71</v>
       </c>
       <c r="C29" t="s">
+        <v>283</v>
+      </c>
+      <c r="D29" t="s">
         <v>284</v>
-      </c>
-      <c r="D29" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s">
         <v>71</v>
       </c>
       <c r="C30" t="s">
+        <v>285</v>
+      </c>
+      <c r="D30" t="s">
         <v>286</v>
-      </c>
-      <c r="D30" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -4495,16 +4495,16 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s">
         <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -4610,27 +4610,27 @@
         <v>65</v>
       </c>
       <c r="B42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" t="s">
         <v>157</v>
-      </c>
-      <c r="C42" t="s">
-        <v>159</v>
-      </c>
-      <c r="D42" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B43" t="s">
         <v>71</v>
       </c>
       <c r="C43" t="s">
+        <v>241</v>
+      </c>
+      <c r="D43" t="s">
         <v>242</v>
-      </c>
-      <c r="D43" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
@@ -4641,10 +4641,10 @@
         <v>71</v>
       </c>
       <c r="C44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" t="s">
         <v>160</v>
-      </c>
-      <c r="D44" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
@@ -4655,10 +4655,10 @@
         <v>71</v>
       </c>
       <c r="C45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" t="s">
         <v>162</v>
-      </c>
-      <c r="D45" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
@@ -4669,10 +4669,10 @@
         <v>71</v>
       </c>
       <c r="C46" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" t="s">
         <v>164</v>
-      </c>
-      <c r="D46" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
@@ -4683,10 +4683,10 @@
         <v>71</v>
       </c>
       <c r="C47" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" t="s">
         <v>167</v>
-      </c>
-      <c r="D47" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
@@ -4697,15 +4697,15 @@
         <v>71</v>
       </c>
       <c r="C48" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" t="s">
         <v>169</v>
-      </c>
-      <c r="D48" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B49" t="s">
         <v>77</v>
@@ -4725,10 +4725,10 @@
         <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
@@ -4736,13 +4736,13 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" t="s">
         <v>176</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>177</v>
-      </c>
-      <c r="D51" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
@@ -4753,10 +4753,10 @@
         <v>91</v>
       </c>
       <c r="C52" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" t="s">
         <v>179</v>
-      </c>
-      <c r="D52" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
@@ -4767,10 +4767,10 @@
         <v>77</v>
       </c>
       <c r="C53" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" t="s">
         <v>181</v>
-      </c>
-      <c r="D53" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
@@ -4778,13 +4778,13 @@
         <v>19</v>
       </c>
       <c r="B54" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" t="s">
         <v>183</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>184</v>
-      </c>
-      <c r="D54" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
@@ -4792,13 +4792,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" t="s">
         <v>186</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>187</v>
-      </c>
-      <c r="D55" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
@@ -4809,24 +4809,24 @@
         <v>120</v>
       </c>
       <c r="C56" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" t="s">
         <v>189</v>
-      </c>
-      <c r="D56" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B57" t="s">
         <v>71</v>
       </c>
       <c r="C57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D57" t="s">
         <v>311</v>
-      </c>
-      <c r="D57" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
@@ -4834,13 +4834,13 @@
         <v>44</v>
       </c>
       <c r="B58" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" t="s">
+        <v>192</v>
+      </c>
+      <c r="D58" t="s">
         <v>193</v>
-      </c>
-      <c r="C58" t="s">
-        <v>193</v>
-      </c>
-      <c r="D58" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
@@ -4851,10 +4851,10 @@
         <v>106</v>
       </c>
       <c r="C59" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59" t="s">
         <v>197</v>
-      </c>
-      <c r="D59" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
@@ -4865,10 +4865,10 @@
         <v>77</v>
       </c>
       <c r="C60" t="s">
+        <v>198</v>
+      </c>
+      <c r="D60" t="s">
         <v>199</v>
-      </c>
-      <c r="D60" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
@@ -4879,24 +4879,24 @@
         <v>77</v>
       </c>
       <c r="C61" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" t="s">
         <v>201</v>
-      </c>
-      <c r="D61" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B62" t="s">
         <v>91</v>
       </c>
       <c r="C62" t="s">
+        <v>246</v>
+      </c>
+      <c r="D62" t="s">
         <v>247</v>
-      </c>
-      <c r="D62" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
@@ -4907,10 +4907,10 @@
         <v>71</v>
       </c>
       <c r="C63" t="s">
+        <v>202</v>
+      </c>
+      <c r="D63" t="s">
         <v>203</v>
-      </c>
-      <c r="D63" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
@@ -4921,10 +4921,10 @@
         <v>77</v>
       </c>
       <c r="C64" t="s">
+        <v>204</v>
+      </c>
+      <c r="D64" t="s">
         <v>205</v>
-      </c>
-      <c r="D64" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
@@ -4935,10 +4935,10 @@
         <v>71</v>
       </c>
       <c r="C65" t="s">
+        <v>207</v>
+      </c>
+      <c r="D65" t="s">
         <v>208</v>
-      </c>
-      <c r="D65" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
@@ -4949,24 +4949,24 @@
         <v>137</v>
       </c>
       <c r="C66" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" t="s">
         <v>210</v>
-      </c>
-      <c r="D66" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B67" t="s">
         <v>71</v>
       </c>
       <c r="C67" t="s">
+        <v>250</v>
+      </c>
+      <c r="D67" t="s">
         <v>251</v>
-      </c>
-      <c r="D67" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
@@ -4977,38 +4977,38 @@
         <v>77</v>
       </c>
       <c r="C68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68" t="s">
         <v>212</v>
-      </c>
-      <c r="D68" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B69" t="s">
+        <v>275</v>
+      </c>
+      <c r="C69" t="s">
         <v>276</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>277</v>
-      </c>
-      <c r="D69" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B70" t="s">
         <v>77</v>
       </c>
       <c r="C70" t="s">
+        <v>252</v>
+      </c>
+      <c r="D70" t="s">
         <v>253</v>
-      </c>
-      <c r="D70" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
@@ -5019,66 +5019,66 @@
         <v>77</v>
       </c>
       <c r="C71" t="s">
+        <v>213</v>
+      </c>
+      <c r="D71" t="s">
         <v>214</v>
-      </c>
-      <c r="D71" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B72" t="s">
         <v>77</v>
       </c>
       <c r="C72" t="s">
+        <v>312</v>
+      </c>
+      <c r="D72" t="s">
         <v>313</v>
-      </c>
-      <c r="D72" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B73" t="s">
         <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D73" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B74" t="s">
         <v>77</v>
       </c>
       <c r="C74" t="s">
+        <v>299</v>
+      </c>
+      <c r="D74" t="s">
         <v>300</v>
-      </c>
-      <c r="D74" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
       </c>
       <c r="C75" t="s">
+        <v>302</v>
+      </c>
+      <c r="D75" t="s">
         <v>303</v>
-      </c>
-      <c r="D75" t="s">
-        <v>304</v>
       </c>
     </row>
   </sheetData>
